--- a/merged.xlsx
+++ b/merged.xlsx
@@ -29,12 +29,36 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFE0"/>
+        <bgColor rgb="00E0FFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFACD"/>
+        <bgColor rgb="00FFFACD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +79,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +469,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Last name_A</t>
+          <t>Last name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Email_A</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Via_A</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Age_A</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -676,7 +704,7 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Submitted at_A</t>
+          <t>Submitted at</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
@@ -691,1255 +719,1115 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Last name_B</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Email_B</t>
+          <t>Location txt</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Via_B</t>
+          <t>EO provider</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Age_B</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Location txt</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>EO provider</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Submitted at_B</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 10</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Cal</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Arnold</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>cal_arnold@gmail.com</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>OW</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr"/>
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Internet search</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr"/>
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>Yes, please email me</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="J2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>Canadian Citizen</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr"/>
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>Workshops (Resume, Job Smart, Ace the Interview, Max. Job Search), Certifications (WHMIS/AODA/Health &amp; Safety), Goal setting, Access to opportunities on our job board (job postings and job orders)</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr"/>
+      <c r="Y2" s="4" t="inlineStr"/>
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>Full-time (over 20h/week)</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>Job search websites, Networking, Phone calls</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
+      <c r="AB2" s="4" t="inlineStr"/>
+      <c r="AC2" s="4" t="inlineStr">
         <is>
           <t>Automobile I own</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AD2" s="4" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AE2" s="4" t="inlineStr">
         <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
+      <c r="AF2" s="4" t="inlineStr"/>
+      <c r="AG2" s="4" t="inlineStr">
         <is>
           <t>University degree</t>
         </is>
       </c>
-      <c r="AH2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AH2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="4" t="inlineStr">
         <is>
           <t>Social Work</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AJ2" s="4" t="inlineStr">
         <is>
           <t>Policy Analyst</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AK2" s="4" t="inlineStr">
         <is>
           <t>Research Assistant</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AL2" s="4" t="inlineStr">
         <is>
           <t>My long term career goal is to work in policy / advocacy.</t>
         </is>
       </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr">
+      <c r="AM2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4" t="inlineStr"/>
+      <c r="AP2" s="4" t="inlineStr"/>
+      <c r="AQ2" s="4" t="inlineStr">
         <is>
           <t>10/17/2024</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AR2" s="4" t="inlineStr">
         <is>
           <t>Employment Counsellor</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AS2" s="4" t="inlineStr">
         <is>
           <t>Employment Hamilton</t>
         </is>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="AV2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AV2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3" t="inlineStr">
         <is>
           <t>10/10/2024 18:10:47</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX2" s="4" t="inlineStr">
         <is>
           <t>5yz7fafspka5h0acz4hus5yz7rti6yb9</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AY2" s="2" t="inlineStr">
         <is>
           <t>Cal</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>Arnold</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
+      <c r="AZ2" s="5" t="inlineStr">
         <is>
           <t>256-242-9976</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>cal_arnold@gmail.com</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>OW</t>
-        </is>
-      </c>
-      <c r="BD2" t="n">
-        <v>28</v>
-      </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BA2" s="5" t="inlineStr">
         <is>
           <t>Hamilton</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>10/10/2024 18:10:47</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BB2" s="5" t="inlineStr"/>
+      <c r="BC2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="5" t="inlineStr">
         <is>
           <t>5yz7fafspka5h0acz4hus5yz7rti6yb9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>bobsmith234@yahoo.ca</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>walk-in</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>adefrga</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>other way</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Yes, please email or text me</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>Refugee/Asylum Seeker/Protected Person</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>Greek</t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>Career exploration (help finding suitable occupations), Other, Better Jobs Ontario, Certifications (WHMIS/AODA/Health &amp; Safety)</t>
         </is>
       </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="X3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>volunteering</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>Part-time or full-time</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA3" s="4" t="inlineStr">
         <is>
           <t>Phone calls, EH Job Board</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
+      <c r="AB3" s="4" t="inlineStr"/>
+      <c r="AC3" s="4" t="inlineStr">
         <is>
           <t>Walking</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AD3" s="4" t="inlineStr">
         <is>
           <t>No driver's license</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AF3" s="4" t="inlineStr">
         <is>
           <t>Missauga</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AG3" s="4" t="inlineStr">
         <is>
           <t>College certificate/diploma</t>
         </is>
       </c>
-      <c r="AH3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AH3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AJ3" s="4" t="inlineStr">
         <is>
           <t>Autobody repair</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AK3" s="4" t="inlineStr">
         <is>
           <t>astronaut</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AL3" s="4" t="inlineStr">
         <is>
           <t>Work @ home</t>
         </is>
       </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AM3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4" t="inlineStr">
         <is>
           <t>1/21/2023</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AQ3" s="4" t="inlineStr">
         <is>
           <t>9/22/2024</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AR3" s="4" t="inlineStr">
         <is>
           <t>Asfas f2#$523434 $&amp;^3576#%^7sfgbsfcbczxvbcvzbzvcbz</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AS3" s="4" t="inlineStr">
         <is>
           <t>Walmart</t>
         </is>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AV3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AV3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3" t="inlineStr">
         <is>
           <t>10/10/2024 17:56:21</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AX3" s="4" t="inlineStr">
         <is>
           <t>ycgg7xjd5pqwo0nsllvycgg7xvxpf6k5</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AY3" s="2" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
+      <c r="AZ3" s="5" t="inlineStr">
         <is>
           <t>(719) 259- 9854</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>bobsmith234@yahoo.ca</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>walk-in</t>
-        </is>
-      </c>
-      <c r="BD3" t="n">
-        <v>44</v>
-      </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BA3" s="5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BB3" s="5" t="inlineStr">
         <is>
           <t>rth</t>
         </is>
       </c>
-      <c r="BG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>10/10/2024 17:56:21</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BC3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="5" t="inlineStr">
         <is>
           <t>ycgg7xjd5pqwo0nsllvycgg7xvxpf6k5</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Stu</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Mc'Elroy</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>mcelroystu_2024cogeco.ca</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>walkin</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Downtown Employment</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>XYZ Career College</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>No, I do not consent to receiving automated messages</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Firstname Lastname</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4" t="n">
         <v>123456789</v>
       </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>Temporary Foreign Worker</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="Q4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>Spanish</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>Resume support, Interview support (coaching, mock interviews), Career exploration (help finding suitable occupations), Financial assistance (e.g., certifications, transportation, clothes, equipment), Goal setting, Certifications (WHMIS/AODA/Health &amp; Safety), Workshops (Resume, Job Smart, Ace the Interview, Max. Job Search), Power of Possible Workshop (Job search group, employability training), Access to opportunities on our job board (job postings and job orders), Better Jobs Ontario, Threshold School of Building, Employer Wage Incentive Program, Other</t>
         </is>
       </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="X4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>Find apprenticeship</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>Part-time (under 20h/week)</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
         <is>
           <t>Job search websites, Employment Job Board, Phone calls, Personal visits, Networking, Temp/placement agencies, Other</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB4" s="4" t="inlineStr">
         <is>
           <t>Joined union</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" s="4" t="inlineStr">
         <is>
           <t>Walking</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AD4" s="4" t="inlineStr">
         <is>
           <t>No driver's license, A, B, C, D, E, F, G1, G2, G, M</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE4" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF4" s="4" t="inlineStr">
         <is>
           <t>Mississauga</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG4" s="4" t="inlineStr">
         <is>
           <t>Less than a high school diploma/GED</t>
         </is>
       </c>
-      <c r="AH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AH4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ4" s="4" t="inlineStr">
         <is>
           <t>Autobody Repair</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AK4" s="4" t="inlineStr">
         <is>
           <t>1st Responder</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AL4" s="4" t="inlineStr">
         <is>
           <t>Own a garage that fixes up motorcycles and make $100,000/yr</t>
         </is>
       </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr">
+      <c r="AM4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="4" t="inlineStr"/>
+      <c r="AP4" s="4" t="inlineStr"/>
+      <c r="AQ4" s="4" t="inlineStr">
         <is>
           <t>2/4/2023</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AR4" s="4" t="inlineStr">
         <is>
           <t>Burger Flipper, @McDonald's!</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AS4" s="4" t="inlineStr">
         <is>
           <t>McDonald's &amp; Wendy's</t>
         </is>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AV4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AV4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3" t="inlineStr">
         <is>
           <t>10/7/2024 13:09:18</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AX4" s="4" t="inlineStr">
         <is>
           <t>mjr7u5nz6qic0e64vmjr7u5ycdf6akj6</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AY4" s="2" t="inlineStr">
         <is>
           <t>Stu</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>Mc'Elroy</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
+      <c r="AZ4" s="5" t="inlineStr">
         <is>
           <t>(382)-719-2456</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>mcelroystu_2024cogeco.ca</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>walkin</t>
-        </is>
-      </c>
-      <c r="BD4" t="n">
-        <v>32</v>
-      </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BA4" s="5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BB4" s="5" t="inlineStr">
         <is>
           <t>Toronto</t>
         </is>
       </c>
-      <c r="BG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>10/7/2024 13:09:18</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BC4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="5" t="inlineStr">
         <is>
           <t>mjr7u5nz6qic0e64vmjr7u5ycdf6akj6</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Uncle</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rico </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>U_Rico@yandex.com</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Fedcap</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Agilec</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>r/Hamilton reddit.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>No, I do not consent to receiving automated messages</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>Permanent Resident</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>Swahili</t>
         </is>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>Better Jobs Ontario, Resume support, Interview support (coaching, mock interviews), Career exploration (help finding suitable occupations), Goal setting, Financial assistance (e.g., certifications, transportation, clothes, equipment), Certifications (WHMIS/AODA/Health &amp; Safety), Workshops (Resume, Job Smart, Ace the Interview, Max. Job Search), Power of Possible Workshop (Job search group, employability training), Access to opportunities on our job board (job postings and job orders), Employer Wage Incentive Program, Other</t>
         </is>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>Using computers.</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>Self-employment</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>Other, Networking, Phone calls, Personal visits</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" s="4" t="inlineStr">
         <is>
           <t>Community boards</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" s="4" t="inlineStr">
         <is>
           <t>Bus</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AD5" s="4" t="inlineStr">
         <is>
           <t>No driver's license</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE5" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF5" s="4" t="inlineStr">
         <is>
           <t>Mississauga.</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AG5" s="4" t="inlineStr">
         <is>
           <t>Less than a high school diploma/GED</t>
         </is>
       </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr">
+      <c r="AH5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="inlineStr"/>
+      <c r="AJ5" s="4" t="inlineStr"/>
+      <c r="AK5" s="4" t="inlineStr"/>
+      <c r="AL5" s="4" t="inlineStr">
         <is>
           <t>Owning my own taxi.</t>
         </is>
       </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AM5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4" t="inlineStr">
         <is>
           <t>12/9/2023</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AP5" s="4" t="inlineStr">
         <is>
           <t>Resigned</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AQ5" s="4" t="inlineStr">
         <is>
           <t>7/7/2022</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AR5" s="4" t="inlineStr">
         <is>
           <t>Delivery Driver</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AS5" s="4" t="inlineStr">
         <is>
           <t>SkipTheDishes</t>
         </is>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AV5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3" t="inlineStr">
         <is>
           <t>10/10/2024 18:59:23</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr">
+      <c r="AX5" s="4" t="inlineStr"/>
+      <c r="AY5" s="2" t="inlineStr">
         <is>
           <t>Uncle</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rico </t>
-        </is>
-      </c>
-      <c r="BA5" t="n">
+      <c r="AZ5" s="5" t="n">
         <v>9993457586</v>
       </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>U_Rico@yandex.com</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>Fedcap</t>
-        </is>
-      </c>
-      <c r="BD5" t="n">
-        <v>46</v>
-      </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BA5" s="5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BB5" s="5" t="inlineStr">
         <is>
           <t>Oakville</t>
         </is>
       </c>
-      <c r="BG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>10/10/2024 18:59:23</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BC5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Renée</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Liêvre</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>rl2024bp@insertname.org</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>1gwg7</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Advertisement (e.g. on bus)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>No, I do not consent to receiving automated messages</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>Refugee/Asylum Seeker/Protected Person</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="Q6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>French</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="inlineStr">
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>Career exploration (help finding suitable occupations)</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr"/>
+      <c r="Y6" s="4" t="inlineStr"/>
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>Part-time (under 20h/week)</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>Personal visits, Job search websites</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
+      <c r="AB6" s="4" t="inlineStr"/>
+      <c r="AC6" s="4" t="inlineStr">
         <is>
           <t>Walking</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AD6" s="4" t="inlineStr">
         <is>
           <t>No driver's license</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AE6" s="4" t="inlineStr">
         <is>
           <t>Greater Hamilton Area</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
+      <c r="AF6" s="4" t="inlineStr"/>
+      <c r="AG6" s="4" t="inlineStr">
         <is>
           <t>Less than a high school diploma/GED</t>
         </is>
       </c>
-      <c r="AH6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AH6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4" t="inlineStr">
         <is>
           <t>Restaurant</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AJ6" s="4" t="inlineStr">
         <is>
           <t>Grocery Store</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AK6" s="4" t="inlineStr">
         <is>
           <t>Movie Theatre</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AL6" s="4" t="inlineStr">
         <is>
           <t>Musician</t>
         </is>
       </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr">
+      <c r="AM6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4" t="inlineStr"/>
+      <c r="AP6" s="4" t="inlineStr"/>
+      <c r="AQ6" s="4" t="inlineStr">
         <is>
           <t>8/12/2024</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AR6" s="4" t="inlineStr">
         <is>
           <t>Babysitter</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AS6" s="4" t="inlineStr">
         <is>
           <t>Cousin's family</t>
         </is>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AV6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AV6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="inlineStr">
         <is>
           <t>10/10/2024 19:24:38</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
+      <c r="AX6" s="4" t="inlineStr">
         <is>
           <t>igbyr90ypthglwfyigbyhtvnrce8gswq</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="AY6" s="2" t="inlineStr">
         <is>
           <t>Renée</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>Liêvre</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
+      <c r="AZ6" s="5" t="inlineStr">
         <is>
           <t>956-717-9023</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>rl2024bp@insertname.org</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>1gwg7</t>
-        </is>
-      </c>
-      <c r="BD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BA6" s="5" t="inlineStr">
         <is>
           <t>Hamilton</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BB6" s="5" t="inlineStr">
         <is>
           <t>Val D'Or</t>
         </is>
       </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>10/10/2024 19:24:38</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
+      <c r="BC6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="5" t="inlineStr">
         <is>
           <t>igbyr90ypthglwfyigbyhtvnrce8gswq</t>
         </is>

--- a/merged.xlsx
+++ b/merged.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,30 +714,25 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Location txt</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Location txt</t>
+          <t>EO provider</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>EO provider</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 10</t>
         </is>
@@ -912,26 +907,21 @@
           <t>5yz7fafspka5h0acz4hus5yz7rti6yb9</t>
         </is>
       </c>
-      <c r="AY2" s="2" t="inlineStr">
-        <is>
-          <t>Cal</t>
+      <c r="AY2" s="5" t="inlineStr">
+        <is>
+          <t>256-242-9976</t>
         </is>
       </c>
       <c r="AZ2" s="5" t="inlineStr">
         <is>
-          <t>256-242-9976</t>
-        </is>
-      </c>
-      <c r="BA2" s="5" t="inlineStr">
-        <is>
           <t>Hamilton</t>
         </is>
       </c>
-      <c r="BB2" s="5" t="inlineStr"/>
-      <c r="BC2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="5" t="inlineStr">
+      <c r="BA2" s="5" t="inlineStr"/>
+      <c r="BB2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="5" t="inlineStr">
         <is>
           <t>5yz7fafspka5h0acz4hus5yz7rti6yb9</t>
         </is>
@@ -1144,30 +1134,25 @@
           <t>ycgg7xjd5pqwo0nsllvycgg7xvxpf6k5</t>
         </is>
       </c>
-      <c r="AY3" s="2" t="inlineStr">
-        <is>
-          <t>Bob</t>
+      <c r="AY3" s="5" t="inlineStr">
+        <is>
+          <t>(719) 259- 9854</t>
         </is>
       </c>
       <c r="AZ3" s="5" t="inlineStr">
         <is>
-          <t>(719) 259- 9854</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="BA3" s="5" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="BB3" s="5" t="inlineStr">
-        <is>
           <t>rth</t>
         </is>
       </c>
-      <c r="BC3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="5" t="inlineStr">
+      <c r="BB3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="5" t="inlineStr">
         <is>
           <t>ycgg7xjd5pqwo0nsllvycgg7xvxpf6k5</t>
         </is>
@@ -1382,30 +1367,25 @@
           <t>mjr7u5nz6qic0e64vmjr7u5ycdf6akj6</t>
         </is>
       </c>
-      <c r="AY4" s="2" t="inlineStr">
-        <is>
-          <t>Stu</t>
+      <c r="AY4" s="5" t="inlineStr">
+        <is>
+          <t>(382)-719-2456</t>
         </is>
       </c>
       <c r="AZ4" s="5" t="inlineStr">
         <is>
-          <t>(382)-719-2456</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="BA4" s="5" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="BB4" s="5" t="inlineStr">
-        <is>
           <t>Toronto</t>
         </is>
       </c>
-      <c r="BC4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="5" t="inlineStr">
+      <c r="BB4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="5" t="inlineStr">
         <is>
           <t>mjr7u5nz6qic0e64vmjr7u5ycdf6akj6</t>
         </is>
@@ -1600,28 +1580,23 @@
         </is>
       </c>
       <c r="AX5" s="4" t="inlineStr"/>
-      <c r="AY5" s="2" t="inlineStr">
-        <is>
-          <t>Uncle</t>
-        </is>
-      </c>
-      <c r="AZ5" s="5" t="n">
+      <c r="AY5" s="5" t="n">
         <v>9993457586</v>
       </c>
+      <c r="AZ5" s="5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="BA5" s="5" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="BB5" s="5" t="inlineStr">
-        <is>
           <t>Oakville</t>
         </is>
       </c>
-      <c r="BC5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="5" t="inlineStr"/>
+      <c r="BB5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1804,30 +1779,25 @@
           <t>igbyr90ypthglwfyigbyhtvnrce8gswq</t>
         </is>
       </c>
-      <c r="AY6" s="2" t="inlineStr">
-        <is>
-          <t>Renée</t>
+      <c r="AY6" s="5" t="inlineStr">
+        <is>
+          <t>956-717-9023</t>
         </is>
       </c>
       <c r="AZ6" s="5" t="inlineStr">
         <is>
-          <t>956-717-9023</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="BA6" s="5" t="inlineStr">
         <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
-      <c r="BB6" s="5" t="inlineStr">
-        <is>
           <t>Val D'Or</t>
         </is>
       </c>
-      <c r="BC6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="5" t="inlineStr">
+      <c r="BB6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="5" t="inlineStr">
         <is>
           <t>igbyr90ypthglwfyigbyhtvnrce8gswq</t>
         </is>

--- a/merged.xlsx
+++ b/merged.xlsx
@@ -29,36 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090EE90"/>
-        <bgColor rgb="0090EE90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0FFE0"/>
-        <bgColor rgb="00E0FFE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFACD"/>
-        <bgColor rgb="00FFFACD"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -79,15 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -453,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,1335 +441,1365 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Name_matched</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Last name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Via</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Name of agency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Referral source</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Referral source other</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Auto-msg</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>OW</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>OWCW name</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SAMS MID</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Valid SIN &amp; ID</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Newcomer &lt;5yrs</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Status in CDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SIN starts w/9</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Open work permit</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Perm. resident</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>First language</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">First language other </t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>English BM &gt;5</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Services of interest</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>BJO presentation</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Services of interest other</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Type of emp</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Job search strategies</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Job search strategies other</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Driver’s licence</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Targeting jobs in</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Targeting jobs in other</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Education</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Occupational goal</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Occupation 1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Occupation 2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Occupation 3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Long term goal</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Previous emp</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Employed</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>End date:</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Reason for leaving</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Start date</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Occupation</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Employer</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Weekly hours</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Hourly wage</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Submitted at</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 49</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Location txt</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>EO provider</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 10</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Cal</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Arnold</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>cal_arnold@gmail.com</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>OW</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="F2" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="inlineStr"/>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Internet search</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr"/>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Yes, please email me</t>
         </is>
       </c>
-      <c r="J2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="inlineStr"/>
-      <c r="N2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Canadian Citizen</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr"/>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
         <is>
           <t>Workshops (Resume, Job Smart, Ace the Interview, Max. Job Search), Certifications (WHMIS/AODA/Health &amp; Safety), Goal setting, Access to opportunities on our job board (job postings and job orders)</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Full-time (over 20h/week)</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Job search websites, Networking, Phone calls</t>
         </is>
       </c>
-      <c r="AB2" s="4" t="inlineStr"/>
-      <c r="AC2" s="4" t="inlineStr">
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Automobile I own</t>
         </is>
       </c>
-      <c r="AD2" s="4" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AE2" s="4" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="AF2" s="4" t="inlineStr"/>
-      <c r="AG2" s="4" t="inlineStr">
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>University degree</t>
         </is>
       </c>
-      <c r="AH2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="4" t="inlineStr">
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Social Work</t>
         </is>
       </c>
-      <c r="AJ2" s="4" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Policy Analyst</t>
         </is>
       </c>
-      <c r="AK2" s="4" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Research Assistant</t>
         </is>
       </c>
-      <c r="AL2" s="4" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>My long term career goal is to work in policy / advocacy.</t>
         </is>
       </c>
-      <c r="AM2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="4" t="inlineStr"/>
-      <c r="AP2" s="4" t="inlineStr"/>
-      <c r="AQ2" s="4" t="inlineStr">
+      <c r="AN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>10/17/2024</t>
         </is>
       </c>
-      <c r="AR2" s="4" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Employment Counsellor</t>
         </is>
       </c>
-      <c r="AS2" s="4" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Employment Hamilton</t>
         </is>
       </c>
-      <c r="AT2" s="4" t="n">
+      <c r="AU2" t="n">
         <v>40</v>
       </c>
-      <c r="AU2" s="4" t="n">
+      <c r="AV2" t="n">
         <v>22</v>
       </c>
-      <c r="AV2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="inlineStr">
+      <c r="AW2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>10/10/2024 18:10:47</t>
         </is>
       </c>
-      <c r="AX2" s="4" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>5yz7fafspka5h0acz4hus5yz7rti6yb9</t>
         </is>
       </c>
-      <c r="AY2" s="5" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>256-242-9976</t>
         </is>
       </c>
-      <c r="AZ2" s="5" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>Hamilton</t>
         </is>
       </c>
-      <c r="BA2" s="5" t="inlineStr"/>
-      <c r="BB2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="5" t="inlineStr">
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="inlineStr">
         <is>
           <t>5yz7fafspka5h0acz4hus5yz7rti6yb9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>bobsmith234@yahoo.ca</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>walk-in</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" t="n">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>adefrga</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>other way</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Yes, please email or text me</t>
         </is>
       </c>
-      <c r="J3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="inlineStr"/>
-      <c r="N3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Refugee/Asylum Seeker/Protected Person</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Greek</t>
         </is>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>Career exploration (help finding suitable occupations), Other, Better Jobs Ontario, Certifications (WHMIS/AODA/Health &amp; Safety)</t>
         </is>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>volunteering</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Part-time or full-time</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Phone calls, EH Job Board</t>
         </is>
       </c>
-      <c r="AB3" s="4" t="inlineStr"/>
-      <c r="AC3" s="4" t="inlineStr">
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Walking</t>
         </is>
       </c>
-      <c r="AD3" s="4" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>No driver's license</t>
         </is>
       </c>
-      <c r="AE3" s="4" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AF3" s="4" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>Missauga</t>
         </is>
       </c>
-      <c r="AG3" s="4" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>College certificate/diploma</t>
         </is>
       </c>
-      <c r="AH3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="4" t="inlineStr">
+      <c r="AI3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="AJ3" s="4" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Autobody repair</t>
         </is>
       </c>
-      <c r="AK3" s="4" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>astronaut</t>
         </is>
       </c>
-      <c r="AL3" s="4" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Work @ home</t>
         </is>
       </c>
-      <c r="AM3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="4" t="inlineStr">
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>1/21/2023</t>
         </is>
       </c>
-      <c r="AP3" s="4" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
       </c>
-      <c r="AQ3" s="4" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>9/22/2024</t>
         </is>
       </c>
-      <c r="AR3" s="4" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Asfas f2#$523434 $&amp;^3576#%^7sfgbsfcbczxvbcvzbzvcbz</t>
         </is>
       </c>
-      <c r="AS3" s="4" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Walmart</t>
         </is>
       </c>
-      <c r="AT3" s="4" t="n">
+      <c r="AU3" t="n">
         <v>44</v>
       </c>
-      <c r="AU3" s="4" t="n">
+      <c r="AV3" t="n">
         <v>17</v>
       </c>
-      <c r="AV3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="inlineStr">
+      <c r="AW3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="inlineStr">
         <is>
           <t>10/10/2024 17:56:21</t>
         </is>
       </c>
-      <c r="AX3" s="4" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>ycgg7xjd5pqwo0nsllvycgg7xvxpf6k5</t>
         </is>
       </c>
-      <c r="AY3" s="5" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>(719) 259- 9854</t>
         </is>
       </c>
-      <c r="AZ3" s="5" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="BA3" s="5" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>rth</t>
         </is>
       </c>
-      <c r="BB3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="5" t="inlineStr">
+      <c r="BC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="inlineStr">
         <is>
           <t>ycgg7xjd5pqwo0nsllvycgg7xvxpf6k5</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Stu</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Mc'Elroy</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>mcelroystu_2024cogeco.ca</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>walkin</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" t="n">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Downtown Employment</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>XYZ Career College</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>No, I do not consent to receiving automated messages</t>
         </is>
       </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Firstname Lastname</t>
         </is>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="N4" t="n">
         <v>123456789</v>
       </c>
-      <c r="N4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Temporary Foreign Worker</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Spanish</t>
         </is>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>Resume support, Interview support (coaching, mock interviews), Career exploration (help finding suitable occupations), Financial assistance (e.g., certifications, transportation, clothes, equipment), Goal setting, Certifications (WHMIS/AODA/Health &amp; Safety), Workshops (Resume, Job Smart, Ace the Interview, Max. Job Search), Power of Possible Workshop (Job search group, employability training), Access to opportunities on our job board (job postings and job orders), Better Jobs Ontario, Threshold School of Building, Employer Wage Incentive Program, Other</t>
         </is>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Find apprenticeship</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Part-time (under 20h/week)</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Job search websites, Employment Job Board, Phone calls, Personal visits, Networking, Temp/placement agencies, Other</t>
         </is>
       </c>
-      <c r="AB4" s="4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Joined union</t>
         </is>
       </c>
-      <c r="AC4" s="4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Walking</t>
         </is>
       </c>
-      <c r="AD4" s="4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>No driver's license, A, B, C, D, E, F, G1, G2, G, M</t>
         </is>
       </c>
-      <c r="AE4" s="4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AF4" s="4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>Mississauga</t>
         </is>
       </c>
-      <c r="AG4" s="4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Less than a high school diploma/GED</t>
         </is>
       </c>
-      <c r="AH4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="4" t="inlineStr">
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="AJ4" s="4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Autobody Repair</t>
         </is>
       </c>
-      <c r="AK4" s="4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>1st Responder</t>
         </is>
       </c>
-      <c r="AL4" s="4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Own a garage that fixes up motorcycles and make $100,000/yr</t>
         </is>
       </c>
-      <c r="AM4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="4" t="inlineStr"/>
-      <c r="AP4" s="4" t="inlineStr"/>
-      <c r="AQ4" s="4" t="inlineStr">
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>2/4/2023</t>
         </is>
       </c>
-      <c r="AR4" s="4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Burger Flipper, @McDonald's!</t>
         </is>
       </c>
-      <c r="AS4" s="4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>McDonald's &amp; Wendy's</t>
         </is>
       </c>
-      <c r="AT4" s="4" t="n">
+      <c r="AU4" t="n">
         <v>45</v>
       </c>
-      <c r="AU4" s="4" t="n">
+      <c r="AV4" t="n">
         <v>17</v>
       </c>
-      <c r="AV4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="3" t="inlineStr">
+      <c r="AW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="inlineStr">
         <is>
           <t>10/7/2024 13:09:18</t>
         </is>
       </c>
-      <c r="AX4" s="4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>mjr7u5nz6qic0e64vmjr7u5ycdf6akj6</t>
         </is>
       </c>
-      <c r="AY4" s="5" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>(382)-719-2456</t>
         </is>
       </c>
-      <c r="AZ4" s="5" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="BA4" s="5" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>Toronto</t>
         </is>
       </c>
-      <c r="BB4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="5" t="inlineStr">
+      <c r="BC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="inlineStr">
         <is>
           <t>mjr7u5nz6qic0e64vmjr7u5ycdf6akj6</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Uncle</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uncle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rico </t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>U_Rico@yandex.com</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fedcap</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="F5" t="n">
         <v>46</v>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Agilec</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>r/Hamilton reddit.</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>No, I do not consent to receiving automated messages</t>
         </is>
       </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Permanent Resident</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Swahili</t>
         </is>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>Better Jobs Ontario, Resume support, Interview support (coaching, mock interviews), Career exploration (help finding suitable occupations), Goal setting, Financial assistance (e.g., certifications, transportation, clothes, equipment), Certifications (WHMIS/AODA/Health &amp; Safety), Workshops (Resume, Job Smart, Ace the Interview, Max. Job Search), Power of Possible Workshop (Job search group, employability training), Access to opportunities on our job board (job postings and job orders), Employer Wage Incentive Program, Other</t>
         </is>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Using computers.</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>Self-employment</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Other, Networking, Phone calls, Personal visits</t>
         </is>
       </c>
-      <c r="AB5" s="4" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>Community boards</t>
         </is>
       </c>
-      <c r="AC5" s="4" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Bus</t>
         </is>
       </c>
-      <c r="AD5" s="4" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>No driver's license</t>
         </is>
       </c>
-      <c r="AE5" s="4" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AF5" s="4" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>Mississauga.</t>
         </is>
       </c>
-      <c r="AG5" s="4" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>Less than a high school diploma/GED</t>
         </is>
       </c>
-      <c r="AH5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="4" t="inlineStr"/>
-      <c r="AJ5" s="4" t="inlineStr"/>
-      <c r="AK5" s="4" t="inlineStr"/>
-      <c r="AL5" s="4" t="inlineStr">
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
         <is>
           <t>Owning my own taxi.</t>
         </is>
       </c>
-      <c r="AM5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="4" t="inlineStr">
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>12/9/2023</t>
         </is>
       </c>
-      <c r="AP5" s="4" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>Resigned</t>
         </is>
       </c>
-      <c r="AQ5" s="4" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>7/7/2022</t>
         </is>
       </c>
-      <c r="AR5" s="4" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>Delivery Driver</t>
         </is>
       </c>
-      <c r="AS5" s="4" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>SkipTheDishes</t>
         </is>
       </c>
-      <c r="AT5" s="4" t="n">
+      <c r="AU5" t="n">
         <v>20</v>
       </c>
-      <c r="AU5" s="4" t="n">
+      <c r="AV5" t="n">
         <v>17</v>
       </c>
-      <c r="AV5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="3" t="inlineStr">
+      <c r="AW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="inlineStr">
         <is>
           <t>10/10/2024 18:59:23</t>
         </is>
       </c>
-      <c r="AX5" s="4" t="inlineStr"/>
-      <c r="AY5" s="5" t="n">
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="n">
         <v>9993457586</v>
       </c>
-      <c r="AZ5" s="5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="BA5" s="5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>Oakville</t>
         </is>
       </c>
-      <c r="BB5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="5" t="inlineStr"/>
+      <c r="BC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Renée</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Liêvre</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>rl2024bp@insertname.org</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1gwg7</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Advertisement (e.g. on bus)</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>No, I do not consent to receiving automated messages</t>
         </is>
       </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Refugee/Asylum Seeker/Protected Person</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>French</t>
         </is>
       </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>Career exploration (help finding suitable occupations)</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr"/>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Part-time (under 20h/week)</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Personal visits, Job search websites</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr"/>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Walking</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>No driver's license</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Greater Hamilton Area</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr"/>
-      <c r="AG6" s="4" t="inlineStr">
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>Less than a high school diploma/GED</t>
         </is>
       </c>
-      <c r="AH6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4" t="inlineStr">
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>Restaurant</t>
         </is>
       </c>
-      <c r="AJ6" s="4" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>Grocery Store</t>
         </is>
       </c>
-      <c r="AK6" s="4" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>Movie Theatre</t>
         </is>
       </c>
-      <c r="AL6" s="4" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>Musician</t>
         </is>
       </c>
-      <c r="AM6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4" t="inlineStr"/>
-      <c r="AP6" s="4" t="inlineStr"/>
-      <c r="AQ6" s="4" t="inlineStr">
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>8/12/2024</t>
         </is>
       </c>
-      <c r="AR6" s="4" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>Babysitter</t>
         </is>
       </c>
-      <c r="AS6" s="4" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Cousin's family</t>
         </is>
       </c>
-      <c r="AT6" s="4" t="n">
+      <c r="AU6" t="n">
         <v>5</v>
       </c>
-      <c r="AU6" s="4" t="n">
+      <c r="AV6" t="n">
         <v>17</v>
       </c>
-      <c r="AV6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="3" t="inlineStr">
+      <c r="AW6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="inlineStr">
         <is>
           <t>10/10/2024 19:24:38</t>
         </is>
       </c>
-      <c r="AX6" s="4" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>igbyr90ypthglwfyigbyhtvnrce8gswq</t>
         </is>
       </c>
-      <c r="AY6" s="5" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
         <is>
           <t>956-717-9023</t>
         </is>
       </c>
-      <c r="AZ6" s="5" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>Hamilton</t>
         </is>
       </c>
-      <c r="BA6" s="5" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>Val D'Or</t>
         </is>
       </c>
-      <c r="BB6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="5" t="inlineStr">
+      <c r="BC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="inlineStr">
         <is>
           <t>igbyr90ypthglwfyigbyhtvnrce8gswq</t>
         </is>
